--- a/personal_words/list_of_twelve_personal_words.xlsx
+++ b/personal_words/list_of_twelve_personal_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanos\Documents\Work\Columbia Research Assistant Job\PsychoPy Experiments\Cocaine_Study_Stroop_Test\personal_words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8EBD7-74DF-45FC-85EA-B2EED4597244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789A291-27CD-4339-8C26-B509F466DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{67250DF5-8DFE-43D4-B0B5-36103A2B054C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>List of 12 Personal Words</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>BUD</t>
   </si>
@@ -77,18 +74,23 @@
     <t>GIGGLY</t>
   </si>
   <si>
-    <t>*this document is not used in the python program --&gt; nevermind this will be used</t>
-  </si>
-  <si>
-    <t>*this document exists only as a template to show how a person's personalized words are listed --&gt; nevermind, this will be used</t>
+    <t>twelve_words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -116,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5997B785-E9EA-4CBF-8E5B-1F2DD9CEB3C6}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -463,75 +466,69 @@
     <col min="1" max="1" width="20.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
